--- a/Pubmed/Nipah/Nipah_AI_search_checked.xlsx
+++ b/Pubmed/Nipah/Nipah_AI_search_checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Nipah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E740BD6C-E9B8-7D4A-A261-CA8E1783E1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E8860-4340-6446-99D9-A2A1237885AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5840" yWindow="500" windowWidth="29080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
   <si>
     <t>RefID</t>
   </si>
@@ -372,6 +372,15 @@
   </si>
   <si>
     <t>PMID</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/10.1101/2024.07.31.605971v1</t>
+  </si>
+  <si>
+    <t>https://www.neurology-asia.org/articles/20091_067.pdf</t>
+  </si>
+  <si>
+    <t>https://sciendo.com/article/10.5372/1905-7415.0706.244</t>
   </si>
 </sst>
 </file>
@@ -772,10 +781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -815,7 +825,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -844,7 +854,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="335" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="335" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -873,7 +883,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -896,7 +906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="320" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="320" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -919,7 +929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>13</v>
       </c>
@@ -942,7 +952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20</v>
       </c>
@@ -971,7 +981,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>23</v>
       </c>
@@ -1000,7 +1010,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>25</v>
       </c>
@@ -1023,7 +1033,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="335" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="335" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>31</v>
       </c>
@@ -1052,7 +1062,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>32</v>
       </c>
@@ -1071,12 +1081,14 @@
       <c r="F11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>35</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>36</v>
       </c>
@@ -1124,6 +1136,9 @@
       <c r="F13" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="G13" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>65</v>
       </c>
@@ -1131,7 +1146,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="224" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="224" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>40</v>
       </c>
@@ -1150,6 +1165,9 @@
       <c r="F14" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="G14" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="H14" s="3" t="s">
         <v>71</v>
       </c>
@@ -1157,7 +1175,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>41</v>
       </c>
@@ -1186,7 +1204,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>47</v>
       </c>
@@ -1228,6 +1246,9 @@
       <c r="F17" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="G17" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="H17" s="3" t="s">
         <v>87</v>
       </c>
@@ -1235,7 +1256,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="112" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>53</v>
       </c>
@@ -1265,7 +1286,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I18" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="50"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="G11" r:id="rId1" xr:uid="{47A35F7A-1A41-9348-9AEB-3B654FA48C1F}"/>
+    <hyperlink ref="G13" r:id="rId2" xr:uid="{2778A119-F373-7E46-B168-E5751DBBDC01}"/>
+    <hyperlink ref="G14" r:id="rId3" xr:uid="{C5004CD8-6D98-BA42-B8AE-F7B0E4A7E5E3}"/>
+    <hyperlink ref="G17" r:id="rId4" xr:uid="{580D37DA-5CFE-434A-84C6-A5C5342EC737}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pubmed/Nipah/Nipah_AI_search_checked.xlsx
+++ b/Pubmed/Nipah/Nipah_AI_search_checked.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Nipah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E8860-4340-6446-99D9-A2A1237885AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BF611F-ED38-0A4C-ACC8-E0107D43B4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="500" windowWidth="29080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13080" yWindow="1740" windowWidth="29080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>RefID</t>
   </si>
@@ -62,46 +62,7 @@
     <t>Direct Submission</t>
   </si>
   <si>
-    <t>Arankalle V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hepatitis, National Institute of Virology, 20-A, Dr. Ambedkar Road, Pune, Maharashtra 411001, India</t>
-  </si>
-  <si>
-    <t>FJ513081, FJ513080, FJ513079, FJ513078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The GenBank submissions with accession numbers FJ513081, FJ513080, FJ513079, and FJ513078 are associated with the study titled "Genomic characterization of Nipah virus, West Bengal, India," authored by Arankalle V. et al., published in 2011. The study is indexed in PubMed with PMID 21529409. ([europepmc.org](https://europepmc.org/article/MED/21529409?utm_source=openai)) </t>
-  </si>
-  <si>
-    <t>Epstein J., Anthony S., Islam A., Kilpatrick A., Khan S., Sanchez M., Ross N., Smith I., Zambrana-torrelio C., Tao Y., Islam A., Quan P., Olival K., Khan M., Gurley E., Hossein M., Field H., Fielder M., Briese T., Rahman M., Broder C., Crameri G., Wang L., Luby S., Lipkin W., Daszak P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EcoHealth Alliance, 460 West 34th street, New York, NY 10001, USA</t>
-  </si>
-  <si>
-    <t>MK995302, MK995301, MK995300, MK995299, MK995298, MK995297, MK995296, MK995295, MK995294, MK995293, MK995292, MK995291, MK995290, MK995289, MK995288, MK995287, MK995286, MK995285, MK995284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The GenBank submissions you referenced are associated with the following publication:
-**Title:** Nipah virus dynamics in bats and implications for spillover to humans
-**Authors:** Jonathan H. Epstein, Simon J. Anthony, Ariful Islam, A. Marm Kilpatrick, Shahneaz Ali Khan, Maria D. Balkey, Noam Ross, Ina Smith, Carlos Zambrana-Torrelio, Yun Tao, Ausraful Islam, Phenix Lan Quan, Kevin J. Olival, M. Salah Uddin Khan, Emily S. Gurley, M. Jahangir Hossein, Hume E. Field, Mark D. Fielder, Thomas Briese, Mahmudur Rahman, Christopher C. Broder, Gary Crameri, Lin-Fa Wang, Stephen P. Luby, W. Ian Lipkin, Peter Daszak
-**Journal:** Proceedings of the National Academy of Sciences of the United States of America
-**Publication Date:** November 17, 2020
-**DOI:** 10.1073/pnas.2000429117
-You can access the full article here: ([pnas.org](https://www.pnas.org/doi/full/10.1073/pnas.2000429117?doi=10.1073%2Fpnas.2000429117&amp;utm_source=openai)) </t>
-  </si>
-  <si>
     <t>NCBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Center for Biotechnology Information, NIH, Bethesda, MD 20894, USA</t>
-  </si>
-  <si>
-    <t>NC_002728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The GenBank accession number NC_002728 corresponds to the complete genome sequence of the Nipah virus isolate from Malaysia in 1999. This sequence was submitted to GenBank in 2004 by the National Center for Biotechnology Information (NCBI). The original publication detailing this sequence is titled "Complete genome sequence of Nipah virus," authored by Harcourt BH, Tamin A, Ksiazek TG, Rollin PE, Anderson LJ, Bellini WJ, and Rota PA. It was published in the journal Virology in 2000. The PubMed ID (PMID) for this publication is 10772971. </t>
   </si>
   <si>
     <t xml:space="preserve"> One Health Institute &amp; Karen C Drayer Wildlife Health Center, School of Veterinary Medicine, University of California, Davis, 1089 Veterinary Medicine Drive, Davis, CA 95616, USA</t>
@@ -468,16 +429,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -781,22 +740,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="57.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="57.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="69" style="3" customWidth="1"/>
+    <col min="8" max="8" width="69" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,492 +770,413 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="96" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>2008</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>21529409</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="335" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>2019</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3">
-        <v>33139552</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4">
+        <v>38682164</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4">
+        <v>21122240</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>2004</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="320" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>2020</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>2024</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="4">
+        <v>29263876</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="4">
+        <v>23894501</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7">
-        <v>38682164</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="128" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8">
-        <v>21122240</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="F10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="335" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="4">
+        <v>34422315</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>47</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10">
-        <v>29263876</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="128" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>53</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="144" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12">
-        <v>23894501</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="224" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15">
-        <v>34422315</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="80" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="G15" s="4">
+        <v>31002049</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="I15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="112" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18">
-        <v>31002049</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" t="s">
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I18" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="50"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G11" r:id="rId1" xr:uid="{47A35F7A-1A41-9348-9AEB-3B654FA48C1F}"/>
-    <hyperlink ref="G13" r:id="rId2" xr:uid="{2778A119-F373-7E46-B168-E5751DBBDC01}"/>
-    <hyperlink ref="G14" r:id="rId3" xr:uid="{C5004CD8-6D98-BA42-B8AE-F7B0E4A7E5E3}"/>
-    <hyperlink ref="G17" r:id="rId4" xr:uid="{580D37DA-5CFE-434A-84C6-A5C5342EC737}"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{47A35F7A-1A41-9348-9AEB-3B654FA48C1F}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{2778A119-F373-7E46-B168-E5751DBBDC01}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{C5004CD8-6D98-BA42-B8AE-F7B0E4A7E5E3}"/>
+    <hyperlink ref="G14" r:id="rId4" xr:uid="{580D37DA-5CFE-434A-84C6-A5C5342EC737}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Pubmed/Nipah/Nipah_AI_search_checked.xlsx
+++ b/Pubmed/Nipah/Nipah_AI_search_checked.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Nipah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BF611F-ED38-0A4C-ACC8-E0107D43B4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914B42D3-73D2-5F43-B4A9-8C9477F77A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="1740" windowWidth="29080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="500" windowWidth="29080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>The genetic diversity of nipah virus across spatial scales</t>
   </si>
   <si>
-    <t>Azuero O., Cappelle J., Duong V., Gurley E., Heng O., Hoem T., Hul V., Islam A., Lefrancq N., Lemey P., Mckee C., Nikolay B., Ou T., Rahman M., Salje H., Williams D.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Virology Unit, Institut Pasteur du Cambodge, 5, Bld Monivong, Phnom Penh, Phnom Penh, Phnom Penh 120210, Cambodia, Unpublished</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>Characterization of nipah virus from naturally infected pteropus vampyrus bats, malaysia</t>
   </si>
   <si>
-    <t>Chang L., Daszak P., Epstein J., Field H., Hassan L., Hassan S., Henipavirus ecology research G., Mamat Z., Mohamed M., Naim M., Olival K., Rahman S., Saad N., Shohaimi S., Suri A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Chang L.Y., Medical Microbiology, University Malaya, Faculty of Medicine, 50603, MALAYSIA, Emerg. Infect. Dis. 16 (12), 1990-1993 (2010)</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>Detection of different strains of nipah virus through ecologically targeted surveillance of pteropid bats, cambodia</t>
   </si>
   <si>
-    <t>Buchy P., Cappelle J., Duong V., Hul V.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Virology, Institut Pasteur in Cambodia, 5, Monivong Blvd, Phnom Penh 12201, Cambodia, Unpublished</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">The GenBank submission titled "Detection of different strains of Nipah virus through ecologically targeted surveillance of pteropid bats, Cambodia" by Buchy P., Cappelle J., Duong V., and Hul V. from 2014 appears to be unpublished. The associated accession numbers are KM034753, KM034754, and KM034755. No corresponding publication has been identified in the available databases. </t>
-  </si>
-  <si>
-    <t>Barnes K., Hensley L., Honko A., Jahrling P., Johnson J., Olinger G., Sabeti P., Sword J., Wohl S.</t>
   </si>
   <si>
     <t xml:space="preserve"> Integrated Research Facility - Frederick, National Institute of Allergy and Infectious Diseases, National Institutes of Health, 8200 Research Plaza, Fort Detrick, MD 21702, USA</t>
@@ -163,9 +151,6 @@
     <t>First report of nipah virus shed in urine by fruit bats (pteropus medius), sri lanka</t>
   </si>
   <si>
-    <t>Bas D., Becker-ziaja B., Brinkmann A., Handunnetti S., Jeevatharan H., Kohl C., Muzeniek T., Nitsche A., Oeruc M., Perera I., Perera T., Premawansa G., Premawansa S., Schwarz F., Siriwardana S., Weerasena J., Yapa W.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Centre for Biological Threats and Special Pathogens, Robert Koch-Institute, Seestrasse 10, Berlin 13353, Germany, Unpublished</t>
   </si>
   <si>
@@ -181,9 +166,6 @@
     <t>Nipah virus in the fruit bat pteropus vampyrus in sumatera, indonesia</t>
   </si>
   <si>
-    <t>Abdul adjid R., Barr J., Daniels P., Field H., Ratnawati A., Saepulloh M., Sendow I., Taylor T.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Agriculture, Fisheries &amp; Forestry, Queensland Centre for Emerging Infectious Diseases, Biosecurity Queensland, Block 10, 39 Kessels Road, Coopers Plains, QLD 4108, Australia, Unpublished</t>
   </si>
   <si>
@@ -197,9 +179,6 @@
   </si>
   <si>
     <t>Genetic characterisation of a nipah virus isolated from a pteropus vampyrus in malaysia</t>
-  </si>
-  <si>
-    <t>Chang L., Daszak P., Epstein J., Humes F., Latiffah K., Maizan M., Sharifah S., Sharina M., Siti suri A., Sohayati A., Syamsiah A., Zaini C.</t>
   </si>
   <si>
     <t xml:space="preserve"> School of Medicine and Health Sciences, Monash University, Sunway Campus, Jalan Persiaran Lagoon Selatan, Kuala Lumpur, Selangor 46150, Malaysia, Unpublished</t>
@@ -224,9 +203,6 @@
     <t>Genetic characterization of nipah virus in pteropus lylei, thailand</t>
   </si>
   <si>
-    <t>Boongird K., Hemachudha T., Ngamprasertwong T., Phumesin P., Ratanasetyuth N., Supavonwong P., Wacharapluesadee S., Wanghongsa S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Medicine, Chulalongkorn University Hospital, Rama 4, Bangkok 10330, Thailand, Unpublished</t>
   </si>
   <si>
@@ -244,9 +220,6 @@
     <t>Inference of nipah virus evolution, 1999-2015</t>
   </si>
   <si>
-    <t>Amman B., Doan S., Flora M., Gurley E., Klena J., Ladner J., Lo M., Montgomery J., Nichol S., Rahman M., Satter S., Sazzad H., Spiropoulou C., Sultana S., Whitmer S., Zufan S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Viral Special Pathogens, Centers for Disease Control and Prevention, 1600 Clifton Rd, Atlanta, GA 30324, USA, Virus Evol 7 (1), veaa062 (2021)</t>
   </si>
   <si>
@@ -262,9 +235,6 @@
     <t>Nipah virus transmission in bangladesh</t>
   </si>
   <si>
-    <t>Hossain M., Klena J., Miah M., Montgomery J., Rahman D., Rahman M., Rahman S., Satter S., Shirin T.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> One Health Laboratory, Icddr, B, 68, Shaheed Tajuddin Ahmed Sharani, Dhaka 1212, Bangladesh,  One Health Laboratory, icddr, b, 68, Shaheed Tajuddin Ahmed sharani, Dhaka 1212, Bangladesh, Unpublished</t>
   </si>
   <si>
@@ -275,9 +245,6 @@
   </si>
   <si>
     <t>Survey for nipah virus infection among bats in thailand</t>
-  </si>
-  <si>
-    <t>Boongird K., Chanhome L., Hemachudha T., Ksiazek T., Lumlertdacha B., Rollin P., Rupprecht C., Stockton P., Wacharapluesadee S., Wanghongsa S.</t>
   </si>
   <si>
     <t>2005, 2009</t>
@@ -342,6 +309,39 @@
   </si>
   <si>
     <t>https://sciendo.com/article/10.5372/1905-7415.0706.244</t>
+  </si>
+  <si>
+    <t>Azuero O., Ou T., Lefrancq N., Nikolay B., Mckee C., Cappelle J., Hul V., Hoem T., Lemey P., Rahman M., Islam A., Gurley E., Hul V., Hoem T., Heng O., Williams D., Cappelle J., Salje H., Duong V.</t>
+  </si>
+  <si>
+    <t>Chang L., Rahman S., Hassan S., Olival K., Mohamed M., Hassan L., Saad N., Shohaimi S., Mamat Z., Naim M., Epstein J., Suri A., Field H., Daszak P., Henipavirus ecology research G.</t>
+  </si>
+  <si>
+    <t>Duong V., Cappelle J., Hul V., Buchy P.</t>
+  </si>
+  <si>
+    <t>Honko A., Johnson J., Hensley L., Wohl S., Barnes K., Sabeti P., Olinger G., Jahrling P., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Sword J., Honko A.</t>
+  </si>
+  <si>
+    <t>Kohl C., Siriwardana S., Muzeniek T., Perera T., Bas D., Oeruc M., Brinkmann A., Becker-ziaja B., Schwarz F., Jeevatharan H., Weerasena J., Handunnetti S., Perera I., Premawansa G., Premawansa S., Yapa W., Nitsche A.</t>
+  </si>
+  <si>
+    <t>Sendow I., Ratnawati A., Taylor T., Abdul adjid R., Saepulloh M., Barr J., Daniels P., Field H.</t>
+  </si>
+  <si>
+    <t>Sharifah S., Sohayati A., Maizan M., Chang L., Sharina M., Syamsiah A., Latiffah K., Siti suri A., Zaini C., Humes F., Daszak P., Epstein J.</t>
+  </si>
+  <si>
+    <t>Wacharapluesadee S., Ngamprasertwong T., Supavonwong P., Phumesin P., Ratanasetyuth N., Boongird K., Wanghongsa S., Supavonwong P., Phumesin P., Ratanasetyuth N., Boongird K., Wanghongsa S., Hemachudha T.</t>
+  </si>
+  <si>
+    <t>Whitmer S., Lo M., Sazzad H., Zufan S., Gurley E., Sultana S., Amman B., Ladner J., Rahman M., Doan S., Satter S., Flora M., Montgomery J., Nichol S., Spiropoulou C., Lo M., Zufan S., Nichol S., Spiropoulou C., Klena J.</t>
+  </si>
+  <si>
+    <t>Rahman M., Miah M., Hossain M., Satter S., Klena J., Shirin T., Montgomery J., Rahman D., Rahman S., Miah M., Rahman S., Rahman D., Hossain M., Satter S., Klena J., Shirin T., Montgomery J., Rahman M.</t>
+  </si>
+  <si>
+    <t>Wacharapluesadee S., Lumlertdacha B., Boongird K., Wanghongsa S., Chanhome L., Rollin P., Stockton P., Rupprecht C., Ksiazek T., Hemachudha T.</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -435,7 +435,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -743,7 +742,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -774,404 +773,400 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>2024</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>38682164</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>21122240</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2020</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4">
-        <v>38682164</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7">
+        <v>29263876</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>23894501</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="4">
-        <v>21122240</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>29</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>34422315</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>36</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="4">
-        <v>29263876</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>32</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>38</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>40</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="4">
-        <v>23894501</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>36</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>40</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="4">
-        <v>34422315</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>47</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C15" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D15" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E15" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="F15" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="G15">
+        <v>31002049</v>
+      </c>
+      <c r="H15" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>50</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="I15" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>53</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="4">
-        <v>31002049</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I15" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I15">
+      <sortCondition ref="A1:A15"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="G8" r:id="rId1" xr:uid="{47A35F7A-1A41-9348-9AEB-3B654FA48C1F}"/>
     <hyperlink ref="G10" r:id="rId2" xr:uid="{2778A119-F373-7E46-B168-E5751DBBDC01}"/>

--- a/Pubmed/Nipah/Nipah_AI_search_checked.xlsx
+++ b/Pubmed/Nipah/Nipah_AI_search_checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Nipah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914B42D3-73D2-5F43-B4A9-8C9477F77A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F4003C-00BF-8A41-A71D-D3E10C5D12F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="500" windowWidth="29080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>RefID</t>
   </si>
@@ -76,18 +76,6 @@
 Given the lack of direct references to the specific GenBank accessions, it's possible that the sequences were submitted as part of ongoing research without an associated publication. </t>
   </si>
   <si>
-    <t>Peng L., Hirsch S., Kocher G., Mehta M., Holbrook M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IRF, NIH/NIAID, 8200 Research Plaza, Frederick, MD 21702, USA</t>
-  </si>
-  <si>
-    <t>PQ463988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I couldn't locate a publication associated with the GenBank submission titled "Direct Submission" by authors Peng L., Hirsch S., Kocher G., Mehta M., and Holbrook M., from the IRF, NIH/NIAID, Frederick, MD, USA, in 2024, with accession number PQ463988. It's possible that the study has not been published yet or is not indexed in the available databases. </t>
-  </si>
-  <si>
     <t>The genetic diversity of nipah virus across spatial scales</t>
   </si>
   <si>
@@ -131,21 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">The GenBank submission titled "Detection of different strains of Nipah virus through ecologically targeted surveillance of pteropid bats, Cambodia" by Buchy P., Cappelle J., Duong V., and Hul V. from 2014 appears to be unpublished. The associated accession numbers are KM034753, KM034754, and KM034755. No corresponding publication has been identified in the available databases. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Integrated Research Facility - Frederick, National Institute of Allergy and Infectious Diseases, National Institutes of Health, 8200 Research Plaza, Fort Detrick, MD 21702, USA</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The GenBank submissions with accession numbers KY425646 and KY425655, attributed to authors Barnes K., Hensley L., Honko A., Jahrling P., Johnson J., Olinger G., Sabeti P., Sword J., and Wohl S., are associated with the following publication:
-**Title:** "A VLP-based vaccine provides complete protection against Nipah virus challenge following multiple-dose or single-dose vaccination schedules in a hamster model"
-**Authors:** Walpita P., Cong Y., Jahrling P.B., Rojas O., Postnikova E., Yu S., Johns L., Holbrook M.R.
-**Journal:** npj Vaccines
-**Year:** 2017
-**DOI:** 10.1038/s41541-017-0023-7
-This study discusses the development of a virus-like particle (VLP) vaccine that offers complete protection against Nipah virus in a hamster model. The GenBank accession numbers KY425646 and KY425655 are likely associated with the genetic sequences utilized in this research. </t>
   </si>
   <si>
     <t>First report of nipah virus shed in urine by fruit bats (pteropus medius), sri lanka</t>
@@ -296,9 +269,6 @@
     <t>yes, not PMID</t>
   </si>
   <si>
-    <t>KY425646, KY425655</t>
-  </si>
-  <si>
     <t>PMID</t>
   </si>
   <si>
@@ -318,9 +288,6 @@
   </si>
   <si>
     <t>Duong V., Cappelle J., Hul V., Buchy P.</t>
-  </si>
-  <si>
-    <t>Honko A., Johnson J., Hensley L., Wohl S., Barnes K., Sabeti P., Olinger G., Jahrling P., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Sword J., Honko A.</t>
   </si>
   <si>
     <t>Kohl C., Siriwardana S., Muzeniek T., Perera T., Bas D., Oeruc M., Brinkmann A., Becker-ziaja B., Schwarz F., Jeevatharan H., Weerasena J., Handunnetti S., Perera I., Premawansa G., Premawansa S., Yapa W., Nitsche A.</t>
@@ -739,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -773,405 +740,353 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>2020</v>
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>57</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>2024</v>
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>38682164</v>
+        <v>21122240</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>21122240</v>
+        <v>39</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>23894501</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7">
-        <v>29263876</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="G8">
+        <v>31002049</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G9">
-        <v>23894501</v>
+        <v>34422315</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>2020</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>80</v>
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>38682164</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12">
-        <v>34422315</v>
+      <c r="G12" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15">
-        <v>31002049</v>
-      </c>
-      <c r="H15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I15" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I15">
-      <sortCondition ref="A1:A15"/>
+  <autoFilter ref="A1:I13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
+      <sortCondition ref="F1:F13"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1" xr:uid="{47A35F7A-1A41-9348-9AEB-3B654FA48C1F}"/>
-    <hyperlink ref="G10" r:id="rId2" xr:uid="{2778A119-F373-7E46-B168-E5751DBBDC01}"/>
-    <hyperlink ref="G11" r:id="rId3" xr:uid="{C5004CD8-6D98-BA42-B8AE-F7B0E4A7E5E3}"/>
-    <hyperlink ref="G14" r:id="rId4" xr:uid="{580D37DA-5CFE-434A-84C6-A5C5342EC737}"/>
+    <hyperlink ref="G12" r:id="rId1" xr:uid="{47A35F7A-1A41-9348-9AEB-3B654FA48C1F}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{2778A119-F373-7E46-B168-E5751DBBDC01}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{C5004CD8-6D98-BA42-B8AE-F7B0E4A7E5E3}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{580D37DA-5CFE-434A-84C6-A5C5342EC737}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Pubmed/Nipah/Nipah_AI_search_checked.xlsx
+++ b/Pubmed/Nipah/Nipah_AI_search_checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Nipah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F4003C-00BF-8A41-A71D-D3E10C5D12F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F176DDEA-E162-D349-8EA2-41045F67D2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="500" windowWidth="29080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t xml:space="preserve"> One Health Institute &amp; Karen C Drayer Wildlife Health Center, School of Veterinary Medicine, University of California, Davis, 1089 Veterinary Medicine Drive, Davis, CA 95616, USA</t>
   </si>
   <si>
-    <t>MT125117, MT125116, MT125115, MT125114, MT125113, MT125112</t>
-  </si>
-  <si>
     <t xml:space="preserve">I couldn't locate a specific publication directly associated with the GenBank submissions MT125112 to MT125117 from 2020 by the One Health Institute at the University of California, Davis. However, the institute has been involved in related research, such as the project titled "Ecological Investigations of Emerging High-consequence Zoonotic Viruses at High-priority Livestock, Wildlife, and Human Interfaces," which began in 2022. ([portal.nifa.usda.gov](https://portal.nifa.usda.gov/web/crisprojectpages/0442810-ecological-investigations-of-emerging-high-consequence-zoonotic-viruses-at-high-priority-livestock-wildlife-and-human-interfaces.html?utm_source=openai))
 Additionally, a 2020 study titled "Nipah virus dynamics in bats and implications for spillover to humans" was published in the Proceedings of the National Academy of Sciences. While this study doesn't explicitly mention the GenBank accessions, it aligns with the research focus of the One Health Institute. ([europepmc.org](https://europepmc.org/article/MED/33139552?utm_source=openai))
 Given the lack of direct references to the specific GenBank accessions, it's possible that the sequences were submitted as part of ongoing research without an associated publication. </t>
@@ -251,9 +248,6 @@
     <t>2018, 2019</t>
   </si>
   <si>
-    <t>MH396625, MH423323, MH423324, MH523640, MH523641, MH523642, MH523643, MH523644, MH523645, MK336155, MK336156, MK577980, MK577981, MK577982, MK577983, MK577984, MK577985, MK577986, MK577987, MK577988, MK577989, MN549402, MN549403, MN549404, MN549405, MN549406, MN549407, MN549408, MN549409, MN549410, MN549411</t>
-  </si>
-  <si>
     <t xml:space="preserve">The GenBank submissions you provided are associated with the study titled "Nipah Virus Sequences from Humans and Bats during Nipah Outbreak, Kerala, India, 2018," authored by Pragya D. Yadav et al. This study was published in the journal *Emerging Infectious Diseases* in May 2019. The PubMed ID (PMID) for this publication is 31002049. ([wwwnc.cdc.gov](https://wwwnc.cdc.gov/eid/article/25/5/18-1076_article?utm_source=openai)) </t>
   </si>
   <si>
@@ -309,6 +303,12 @@
   </si>
   <si>
     <t>Wacharapluesadee S., Lumlertdacha B., Boongird K., Wanghongsa S., Chanhome L., Rollin P., Stockton P., Rupprecht C., Ksiazek T., Hemachudha T.</t>
+  </si>
+  <si>
+    <t>MT125112, MT125113, MT125114, MT125115, MT125116, MT125117</t>
+  </si>
+  <si>
+    <t>MH396625, MH423323, MH423324, MH523640, MH523641, MH523643, MH523644, MH523645, MK577980, MK577981, MK577982, MK577983, MK577984, MK577985, MK577986, MK577987, MK577988, MK577989, MN549402, MN549403, MN549404, MN549405, MN549406, MN549407, MN549408, MN549409, MN549410, MN549411</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="F2" sqref="F2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -740,71 +740,65 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>72</v>
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>38682164</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -812,281 +806,287 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
       <c r="G4">
         <v>21122240</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6">
-        <v>23894501</v>
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>23894501</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8">
-        <v>31002049</v>
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9">
-        <v>34422315</v>
+        <v>43</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>2020</v>
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>34422315</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>38682164</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="G13">
+        <v>31002049</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
-      <sortCondition ref="F1:F13"/>
+      <sortCondition ref="A1:A13"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G12" r:id="rId1" xr:uid="{47A35F7A-1A41-9348-9AEB-3B654FA48C1F}"/>
-    <hyperlink ref="G5" r:id="rId2" xr:uid="{2778A119-F373-7E46-B168-E5751DBBDC01}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{C5004CD8-6D98-BA42-B8AE-F7B0E4A7E5E3}"/>
-    <hyperlink ref="G2" r:id="rId4" xr:uid="{580D37DA-5CFE-434A-84C6-A5C5342EC737}"/>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{47A35F7A-1A41-9348-9AEB-3B654FA48C1F}"/>
+    <hyperlink ref="G8" r:id="rId2" xr:uid="{2778A119-F373-7E46-B168-E5751DBBDC01}"/>
+    <hyperlink ref="G9" r:id="rId3" xr:uid="{C5004CD8-6D98-BA42-B8AE-F7B0E4A7E5E3}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{580D37DA-5CFE-434A-84C6-A5C5342EC737}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
